--- a/data/rses.xlsx
+++ b/data/rses.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\ΨΥ-300\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\statsocial\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C25E10-80DC-4CA0-814A-F91A8DEAACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FADBEF-AD72-463A-A1CA-8E8FB4A9D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A415C56-CA4E-44D3-A5E8-A27B1B966650}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA2EAAC8-6211-4FD2-9E99-B25BD7A1BBDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1d2 - Copy22" sheetId="1" r:id="rId1"/>
+    <sheet name="rses" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -918,17 +918,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DBEF2A-E1BA-40B6-8BB4-847BD9D3F32B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12F1C6-6480-4666-B236-7282841C63A6}">
   <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
